--- a/results_exact/6_transbordo_porto.xlsx
+++ b/results_exact/6_transbordo_porto.xlsx
@@ -444,39 +444,39 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>ILHÉUS, BA, Brazil</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>VITÓRIA, ES, Brazil</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>SANTOS, SP, Brazil</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>SÃO LUIZ, MA, Brazil</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>ILHÉUS, BA, Brazil</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>FIGUEIRÓPOLIS, TO, Brazil</t>
+          <t>IPAMERI,GO, Brazil</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>178404.6520000001</v>
       </c>
       <c r="D2" t="n">
-        <v>120590.2550892004</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -485,20 +485,20 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IPAMERI,GO, Brazil</t>
+          <t>FIGUEIRÓPOLIS, TO, Brazil</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>195842.3592703046</v>
       </c>
       <c r="C3" t="n">
-        <v>178404.652</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>899779.9840000002</v>
       </c>
     </row>
     <row r="4">
@@ -514,45 +514,45 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>729132.0560000001</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>729132.0559999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>RIO VERDE, GO, Brazil</t>
+          <t>ANÁPOLIS, GO, Brazil</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>2051138.739089201</v>
+        <v>294755.512</v>
       </c>
       <c r="D5" t="n">
-        <v>314662.0809107986</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>465403.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SÃO SIMÃO, GO, Brazil</t>
+          <t>RIO VERDE, GO, Brazil</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>269557.7447296949</v>
       </c>
       <c r="C6" t="n">
-        <v>736888.7800000001</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>2561646.515270304</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>169768.8</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -580,7 +580,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ANÁPOLIS, GO, Brazil</t>
+          <t>SÃO SIMÃO, GO, Brazil</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -590,7 +590,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>294755.512</v>
+        <v>736888.7800000001</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ILHÉUS, BA, Brazil</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>VITÓRIA, ES, Brazil</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>SANTOS, SP, Brazil</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>SÃO LUIZ, MA, Brazil</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>ILHÉUS, BA, Brazil</t>
         </is>
       </c>
     </row>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>19892118.69800001</v>
       </c>
       <c r="C2" t="n">
-        <v>20573903.42076848</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -653,16 +653,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>21740460.30259651</v>
       </c>
       <c r="B3" t="n">
-        <v>20860855.95836001</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>98687868.64512002</v>
       </c>
     </row>
     <row r="4">
@@ -673,10 +673,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>124397220.07416</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>86030291.28743999</v>
       </c>
     </row>
     <row r="5">
@@ -684,24 +684,24 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>239839652.7617003</v>
+        <v>36322721.74376</v>
       </c>
       <c r="C5" t="n">
-        <v>53684497.62419136</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>79402480.89840001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>37961817.19028294</v>
       </c>
       <c r="B6" t="n">
-        <v>68059047.72080001</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>240333676.0626599</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>19851065.784</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -729,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>50288237.90232001</v>
+        <v>60159599.99920001</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -757,22 +757,22 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ILHÉUS, BA, Brazil</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>VITÓRIA, ES, Brazil</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>SANTOS, SP, Brazil</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>SÃO LUIZ, MA, Brazil</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>ILHÉUS, BA, Brazil</t>
         </is>
       </c>
     </row>
@@ -781,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>4946632922.190082</v>
       </c>
       <c r="C2" t="n">
-        <v>3270865960.988453</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -792,16 +792,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>5397875651.033878</v>
       </c>
       <c r="B3" t="n">
-        <v>3328602635.1552</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>24405452330.0192</v>
       </c>
     </row>
     <row r="4">
@@ -812,10 +812,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
         <v>21777278769.3744</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -823,24 +823,24 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>44890709659.02148</v>
+        <v>9313616874.408241</v>
       </c>
       <c r="C5" t="n">
-        <v>13257462364.52451</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>17410105087.6872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>10083785936.22761</v>
       </c>
       <c r="B6" t="n">
-        <v>13158070277.875</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>56063555221.57706</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>3817242979.56</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>11180695556.7352</v>
+        <v>13158070277.875</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1294733769.00629</v>
+        <v>1170716706.325241</v>
       </c>
       <c r="B2" t="n">
-        <v>176896831823607.5</v>
+        <v>159850977541676.6</v>
       </c>
     </row>
   </sheetData>
